--- a/examples_from_publication/repository-codelist_BNF_Ch.2.5_hypertension_heartfailure_drugs/Step9_master_codelist_HtnHFcodelist.xlsx
+++ b/examples_from_publication/repository-codelist_BNF_Ch.2.5_hypertension_heartfailure_drugs/Step9_master_codelist_HtnHFcodelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas2.cc.ic.ac.uk\egraul\Github\drug-codelist-creation\examples_from_publication\repository-codelist_BNF_Ch.2.5_hypertension_heartfailure_drugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6804037-F68D-4588-BD8C-CFE8CB66EBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B266409B-BAA1-4E74-8267-769DDC91C496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="375" windowWidth="27630" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4835,18 +4835,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5183,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A568" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AM590" sqref="AM590"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5211,35 +5211,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>1522</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23" t="s">
         <v>1528</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
       <c r="Z1" s="27" t="s">
         <v>1529</v>
       </c>
@@ -5249,13 +5249,13 @@
       <c r="AD1" s="29"/>
     </row>
     <row r="2" spans="1:30" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -5296,36 +5296,36 @@
       <c r="G3" s="10" t="s">
         <v>1520</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="26" t="s">
         <v>1514</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24" t="s">
         <v>1515</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24" t="s">
         <v>1516</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25" t="s">
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24" t="s">
         <v>1517</v>
       </c>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25" t="s">
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24" t="s">
         <v>1518</v>
       </c>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25" t="s">
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24" t="s">
         <v>1519</v>
       </c>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="26"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="25"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
@@ -51809,6 +51809,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Z1:AD2"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="H1:Y1"/>
     <mergeCell ref="W3:Y3"/>
@@ -51817,7 +51818,6 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="H3:J3"/>
-    <mergeCell ref="Z1:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/examples_from_publication/repository-codelist_BNF_Ch.2.5_hypertension_heartfailure_drugs/Step9_master_codelist_HtnHFcodelist.xlsx
+++ b/examples_from_publication/repository-codelist_BNF_Ch.2.5_hypertension_heartfailure_drugs/Step9_master_codelist_HtnHFcodelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas2.cc.ic.ac.uk\egraul\Github\drug-codelist-creation\examples_from_publication\repository-codelist_BNF_Ch.2.5_hypertension_heartfailure_drugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B266409B-BAA1-4E74-8267-769DDC91C496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A1B787-2CEB-480C-8237-6ABDAAE012AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="375" windowWidth="27630" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4586,19 +4586,6 @@
   </si>
   <si>
     <t>Step 2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CPRD variables </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(bolded attribute variables used for Step 2and 3 search)</t>
-    </r>
   </si>
   <si>
     <t>step2_chem_brand_term</t>
@@ -4654,6 +4641,19 @@
   </si>
   <si>
     <t>outstanding from Step 3 BNFsearch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CPRD variables  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(bolded attribute variables used for Step 2and 3 search)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4837,18 +4837,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4866,6 +4854,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5183,9 +5183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD605"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5212,7 +5210,7 @@
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -5220,42 +5218,42 @@
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="29" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="23" t="s">
         <v>1528</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="27" t="s">
-        <v>1529</v>
-      </c>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="29"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="25"/>
     </row>
     <row r="2" spans="1:30" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -5274,11 +5272,11 @@
       <c r="W2" s="17"/>
       <c r="X2" s="17"/>
       <c r="Y2" s="17"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="32"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="28"/>
     </row>
     <row r="3" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -5296,36 +5294,36 @@
       <c r="G3" s="10" t="s">
         <v>1520</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="32" t="s">
         <v>1514</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30" t="s">
         <v>1515</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30" t="s">
         <v>1516</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30" t="s">
         <v>1517</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24" t="s">
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30" t="s">
         <v>1518</v>
       </c>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24" t="s">
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30" t="s">
         <v>1519</v>
       </c>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="25"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="31"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
@@ -5409,19 +5407,19 @@
         <v>1513</v>
       </c>
       <c r="Z4" s="13" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AA4" s="14" t="s">
         <v>1523</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AB4" s="14" t="s">
         <v>1524</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AC4" s="15" t="s">
         <v>1525</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AD4" s="16" t="s">
         <v>1526</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -51139,7 +51137,7 @@
         <v>1</v>
       </c>
       <c r="AB596" s="15" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="AC596" s="1"/>
       <c r="AD596" s="6"/>
@@ -51213,7 +51211,7 @@
         <v>1</v>
       </c>
       <c r="AB597" s="15" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="AC597" s="1"/>
       <c r="AD597" s="6"/>
@@ -51287,7 +51285,7 @@
         <v>1</v>
       </c>
       <c r="AB598" s="15" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="AC598" s="1"/>
       <c r="AD598" s="6"/>
@@ -51361,7 +51359,7 @@
         <v>1</v>
       </c>
       <c r="AB599" s="15" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="AC599" s="1"/>
       <c r="AD599" s="6"/>
@@ -51435,7 +51433,7 @@
         <v>1</v>
       </c>
       <c r="AB600" s="15" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="AC600" s="1"/>
       <c r="AD600" s="6"/>
@@ -51509,7 +51507,7 @@
         <v>1</v>
       </c>
       <c r="AB601" s="15" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="AC601" s="1"/>
       <c r="AD601" s="6"/>
@@ -51583,7 +51581,7 @@
         <v>1</v>
       </c>
       <c r="AB602" s="15" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="AC602" s="1"/>
       <c r="AD602" s="6"/>
@@ -51657,7 +51655,7 @@
         <v>1</v>
       </c>
       <c r="AB603" s="15" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="AC603" s="1"/>
       <c r="AD603" s="6"/>
@@ -51728,7 +51726,7 @@
         <v>1</v>
       </c>
       <c r="AB604" s="15" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="AC604" s="1"/>
       <c r="AD604" s="6"/>
@@ -51802,7 +51800,7 @@
         <v>1</v>
       </c>
       <c r="AB605" s="15" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="AC605" s="1"/>
       <c r="AD605" s="6"/>

--- a/examples_from_publication/repository-codelist_BNF_Ch.2.5_hypertension_heartfailure_drugs/Step9_master_codelist_HtnHFcodelist.xlsx
+++ b/examples_from_publication/repository-codelist_BNF_Ch.2.5_hypertension_heartfailure_drugs/Step9_master_codelist_HtnHFcodelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas2.cc.ic.ac.uk\egraul\Github\drug-codelist-creation\examples_from_publication\repository-codelist_BNF_Ch.2.5_hypertension_heartfailure_drugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A1B787-2CEB-480C-8237-6ABDAAE012AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70DD510-54F5-4052-B2C2-3ABA4EE8624F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="375" windowWidth="27630" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5183,7 +5183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD605"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
